--- a/biology/Botanique/Delosperma_congestum/Delosperma_congestum.xlsx
+++ b/biology/Botanique/Delosperma_congestum/Delosperma_congestum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delosperma congestum est une espèce végétale de la famille des Aizoaceae. Cette plante plantes succulentes d'Afrique du Sud, haute de 3 à 5 cm, forme un tapis au feuillage persistant en hiver. Rupicole, elle couvre le haut de muret, pousse entre les dalles ou dans les recoins des escaliers en pierre.
 Sur les autres projets Wikimedia :
